--- a/doc/adzuna_stages.xlsx
+++ b/doc/adzuna_stages.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matan\Documents\GitHub\DE_Naya_Project\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1375F574-93D4-4F3F-97B8-86E995FE7A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F037AC85-0E4F-45F4-B0F4-167045A03352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Stage</t>
   </si>
@@ -45,35 +46,93 @@
     <t>schema detection and save as parquet</t>
   </si>
   <si>
-    <t>location mapping into 4 location columns,
+    <t>Dimensions Serializing</t>
+  </si>
+  <si>
+    <t>Break up "created" into created_date,created_hour,created_time_of_day</t>
+  </si>
+  <si>
+    <t>contract time and contract type</t>
+  </si>
+  <si>
+    <t>category labels and category tags, keep only one.</t>
+  </si>
+  <si>
+    <t>fill in missing data from description field</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Aggregartions</t>
+  </si>
+  <si>
+    <t>Create Redshift Tables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connect Metabase/Superset → create dashboards, filters, metrics </t>
+  </si>
+  <si>
+    <t>create aggregated tables</t>
+  </si>
+  <si>
+    <t>create dashboard</t>
+  </si>
+  <si>
+    <t>create redshift views, no star schema is neccessery</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>location mapping into 4 location columns,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 remove nulls or malformed records
 normalize fields
-remove duplicate IDs</t>
-  </si>
-  <si>
-    <t>Dimensions Serializing</t>
-  </si>
-  <si>
-    <t>Break up "created" into created_date,created_hour,created_time_of_day</t>
-  </si>
-  <si>
-    <t>serializing companies (company "aaa"--&gt;1)</t>
-  </si>
-  <si>
-    <t>contract time and contract type</t>
-  </si>
-  <si>
-    <t>category labels and category tags, keep only one.</t>
-  </si>
-  <si>
-    <t>fill in missing data from description field</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>remove duplicate IDs</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +143,14 @@
     <font>
       <b/>
       <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -140,6 +207,187 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6351</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57835</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>120651</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>181577</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7040417-C5C8-85C1-8006-D86B1B69A469}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6351" y="57835"/>
+          <a:ext cx="2552700" cy="2149392"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>220160</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>73779</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDC42427-1337-0D16-E343-1A6CE40B98C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2658560" y="82550"/>
+          <a:ext cx="2901619" cy="2076450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>315113</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>54909</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FECED9B-1D73-CF7A-04AD-FF8A11D49656}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5708650" y="228600"/>
+          <a:ext cx="2531263" cy="2036109"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>83916</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>172389</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>589</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{105ADAC7-D2FA-4F64-06CD-1BCAD0E905A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="107950" y="2293716"/>
+          <a:ext cx="2502839" cy="1574023"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -405,102 +653,158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="56.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="A5:A8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55A4523-6D56-4FD8-B323-2D698EC2F755}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="A5:A9"/>
-  </mergeCells>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/adzuna_stages.xlsx
+++ b/doc/adzuna_stages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matan\Documents\GitHub\DE_Naya_Project\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F037AC85-0E4F-45F4-B0F4-167045A03352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B675A2B7-CD98-411D-B5A8-48E99732C600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -158,12 +158,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -178,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -186,10 +192,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -656,7 +665,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,64 +700,73 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="D2" s="3"/>
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="1" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="1" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="1" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -799,7 +817,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
